--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxul\OneDrive\Dokumenter\Coding\STA400\STA400\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6E7B4-921A-4B07-BF18-357354BE13CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE3A0B-31C0-401E-BBD9-8C70BCEB9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41490" yWindow="3590" windowWidth="16500" windowHeight="15740" xr2:uid="{D7AC6043-4418-4181-91FE-C9EDE6288631}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
   <si>
     <t>Milk</t>
   </si>
@@ -114,6 +114,69 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>19,1</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>0,7</t>
   </si>
 </sst>
 </file>
@@ -468,7 +531,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -496,8 +559,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0.6</v>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
@@ -507,8 +570,8 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0.6</v>
+      <c r="C3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
@@ -518,8 +581,8 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1.5</v>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
@@ -529,8 +592,8 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0.2</v>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
@@ -540,8 +603,8 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0.9</v>
+      <c r="C6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.75">
@@ -551,8 +614,8 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>4.0999999999999996</v>
+      <c r="C7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.75">
@@ -562,8 +625,8 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0.4</v>
+      <c r="C8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.75">
@@ -573,8 +636,8 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0.5</v>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.75">
@@ -595,8 +658,8 @@
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>1.9</v>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.75">
@@ -606,8 +669,8 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>1.6</v>
+      <c r="C12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.75">
@@ -617,8 +680,8 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0.5</v>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.75">
@@ -628,8 +691,8 @@
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>1.9</v>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.75">
@@ -639,8 +702,8 @@
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>1.1000000000000001</v>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.75">
@@ -650,8 +713,8 @@
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0.8</v>
+      <c r="C16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.75">
@@ -661,8 +724,8 @@
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0.8</v>
+      <c r="C17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
@@ -672,8 +735,8 @@
       <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>1.2</v>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.75">
@@ -683,8 +746,8 @@
       <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0.2</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.75">
@@ -694,8 +757,8 @@
       <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>19.100000000000001</v>
+      <c r="C20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.75">
@@ -705,8 +768,8 @@
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>7.5</v>
+      <c r="C21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.75">
@@ -716,8 +779,8 @@
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>6.9</v>
+      <c r="C22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.75">
@@ -738,8 +801,8 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24">
-        <v>0.6</v>
+      <c r="C24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.75">
@@ -749,8 +812,8 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>2.2000000000000002</v>
+      <c r="C25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.75">
@@ -760,8 +823,8 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>0.5</v>
+      <c r="C26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.75">
@@ -771,8 +834,8 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27">
-        <v>0.9</v>
+      <c r="C27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.75">
@@ -782,8 +845,8 @@
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28">
-        <v>3.9</v>
+      <c r="C28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.75">
@@ -793,8 +856,8 @@
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29">
-        <v>0.4</v>
+      <c r="C29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.75">
@@ -804,8 +867,8 @@
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>0.5</v>
+      <c r="C30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.75">
@@ -815,8 +878,8 @@
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31">
-        <v>1.1000000000000001</v>
+      <c r="C31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.75">
@@ -826,8 +889,8 @@
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32">
-        <v>2.5</v>
+      <c r="C32" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.75">
@@ -837,8 +900,8 @@
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33">
-        <v>2.1</v>
+      <c r="C33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.75">
@@ -848,8 +911,8 @@
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34">
-        <v>0.5</v>
+      <c r="C34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.75">
@@ -859,8 +922,8 @@
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C35">
-        <v>1.3</v>
+      <c r="C35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.75">
@@ -892,8 +955,8 @@
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38">
-        <v>0.7</v>
+      <c r="C38" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.75">
@@ -903,8 +966,8 @@
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39">
-        <v>1.2</v>
+      <c r="C39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.75">
@@ -914,8 +977,8 @@
       <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C40">
-        <v>0.4</v>
+      <c r="C40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.75">
@@ -936,8 +999,8 @@
       <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C42">
-        <v>6.9</v>
+      <c r="C42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.75">
@@ -947,12 +1010,13 @@
       <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C43">
-        <v>7.5</v>
+      <c r="C43" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
